--- a/medicine/Pharmacie/Oxomémazine/Oxomémazine.xlsx
+++ b/medicine/Pharmacie/Oxomémazine/Oxomémazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxom%C3%A9mazine</t>
+          <t>Oxomémazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxomémazine  est une  substance chimique de la famille des phénothiazines. 
 Elle possède des propriétés antihistaminiques, sédatives et anticholinergiques, d'où son emploi dans le traitement de l'allergie, comme antitussif et comme sédatif.
-Le Toplexil qui est à base d'oxomémazine fait partie de la liste des 93 médicaments (dont 82 alors vendus en France) étant "à éviter" au vu des données scientifiques et des alternatives disponibles, selon le 7e rapport de la revue Prescrire publié en 2019[3],[4].
+Le Toplexil qui est à base d'oxomémazine fait partie de la liste des 93 médicaments (dont 82 alors vendus en France) étant "à éviter" au vu des données scientifiques et des alternatives disponibles, selon le 7e rapport de la revue Prescrire publié en 2019,.
 </t>
         </is>
       </c>
